--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H2">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I2">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J2">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>58.97721482941801</v>
+        <v>85.54540235207556</v>
       </c>
       <c r="R2">
-        <v>530.794933464762</v>
+        <v>769.9086211686799</v>
       </c>
       <c r="S2">
-        <v>0.01320786764328488</v>
+        <v>0.0165561712554551</v>
       </c>
       <c r="T2">
-        <v>0.01375170994990459</v>
+        <v>0.01696270359910707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H3">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I3">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J3">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>38.13238315749734</v>
+        <v>39.28854206020534</v>
       </c>
       <c r="R3">
-        <v>343.191448417476</v>
+        <v>353.596878541848</v>
       </c>
       <c r="S3">
-        <v>0.008539695730359067</v>
+        <v>0.00760377311744713</v>
       </c>
       <c r="T3">
-        <v>0.008891323104986049</v>
+        <v>0.007790481726481062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H4">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I4">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J4">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>2.243173282267222</v>
+        <v>3.179805917786889</v>
       </c>
       <c r="R4">
-        <v>20.188559540405</v>
+        <v>28.618253260082</v>
       </c>
       <c r="S4">
-        <v>0.0005023556283359804</v>
+        <v>0.0006154090095610149</v>
       </c>
       <c r="T4">
-        <v>0.0005230404391651177</v>
+        <v>0.0006305202126949485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H5">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I5">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J5">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>9.359951863088334</v>
+        <v>5.309834380465667</v>
       </c>
       <c r="R5">
-        <v>56.15971117853</v>
+        <v>31.859006282794</v>
       </c>
       <c r="S5">
-        <v>0.002096148584037982</v>
+        <v>0.001027647599099287</v>
       </c>
       <c r="T5">
-        <v>0.001454972552123708</v>
+        <v>0.0007019208068053633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H6">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I6">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J6">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>4.409154570727556</v>
+        <v>1.808821034564889</v>
       </c>
       <c r="R6">
-        <v>39.682391136548</v>
+        <v>16.279389311084</v>
       </c>
       <c r="S6">
-        <v>0.0009874242138661667</v>
+        <v>0.0003500731774628118</v>
       </c>
       <c r="T6">
-        <v>0.001028082030599676</v>
+        <v>0.0003586691304212444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I7">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J7">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>2180.441200172232</v>
+        <v>3069.621504113982</v>
       </c>
       <c r="R7">
-        <v>19623.97080155009</v>
+        <v>27626.59353702583</v>
       </c>
       <c r="S7">
-        <v>0.4883068632375474</v>
+        <v>0.5940842864047353</v>
       </c>
       <c r="T7">
-        <v>0.5084132072753269</v>
+        <v>0.6086718666823521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I8">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J8">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>1409.788840280869</v>
@@ -948,10 +948,10 @@
         <v>12688.09956252782</v>
       </c>
       <c r="S8">
-        <v>0.3157203076012661</v>
+        <v>0.2728458202541053</v>
       </c>
       <c r="T8">
-        <v>0.3287202910179574</v>
+        <v>0.2795454761740691</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I9">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J9">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>82.93215367880221</v>
+        <v>114.1008208012795</v>
       </c>
       <c r="R9">
-        <v>746.3893831092199</v>
+        <v>1026.907387211516</v>
       </c>
       <c r="S9">
-        <v>0.01857254386003683</v>
+        <v>0.02208269150221777</v>
       </c>
       <c r="T9">
-        <v>0.01933728010402648</v>
+        <v>0.02262492606792884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I10">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J10">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>346.0459218519533</v>
+        <v>190.5325283348287</v>
       </c>
       <c r="R10">
-        <v>2076.27553111172</v>
+        <v>1143.195170008972</v>
       </c>
       <c r="S10">
-        <v>0.07749651704541512</v>
+        <v>0.03687502872291698</v>
       </c>
       <c r="T10">
-        <v>0.05379165677704792</v>
+        <v>0.02518699010716035</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1371.900604</v>
       </c>
       <c r="I11">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J11">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>163.0104492344835</v>
+        <v>64.90583704244355</v>
       </c>
       <c r="R11">
-        <v>1467.094043110352</v>
+        <v>584.1525333819919</v>
       </c>
       <c r="S11">
-        <v>0.03650597004603776</v>
+        <v>0.01256165876841288</v>
       </c>
       <c r="T11">
-        <v>0.03800912645942906</v>
+        <v>0.01287010692955379</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H12">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I12">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J12">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>2.161636545702</v>
+        <v>5.322527577608889</v>
       </c>
       <c r="R12">
-        <v>19.454728911318</v>
+        <v>47.90274819848</v>
       </c>
       <c r="S12">
-        <v>0.0004840955862547516</v>
+        <v>0.001030104198050304</v>
       </c>
       <c r="T12">
-        <v>0.0005040285282983568</v>
+        <v>0.001055398130287272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H13">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I13">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J13">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>1.397630478929333</v>
+        <v>2.444483781125334</v>
       </c>
       <c r="R13">
-        <v>12.578674310364</v>
+        <v>22.000354030128</v>
       </c>
       <c r="S13">
-        <v>0.0003129974589900731</v>
+        <v>0.0004730972208760851</v>
       </c>
       <c r="T13">
-        <v>0.0003258853273924955</v>
+        <v>0.0004847139962168582</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H14">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I14">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J14">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>0.08221692664388888</v>
+        <v>0.1978435336502222</v>
       </c>
       <c r="R14">
-        <v>0.739952339795</v>
+        <v>1.780591802852</v>
       </c>
       <c r="S14">
-        <v>1.841236973110658E-05</v>
+        <v>3.828997625631018E-05</v>
       </c>
       <c r="T14">
-        <v>1.917051070399791E-05</v>
+        <v>3.923017635122808E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H15">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I15">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J15">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>0.3430615377783333</v>
+        <v>0.3303712314806667</v>
       </c>
       <c r="R15">
-        <v>2.05836922667</v>
+        <v>1.982227388884</v>
       </c>
       <c r="S15">
-        <v>7.68281682609717E-05</v>
+        <v>6.393894395116853E-05</v>
       </c>
       <c r="T15">
-        <v>5.332774446471692E-05</v>
+        <v>4.367263171132168E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H16">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I16">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J16">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>0.1616046075302222</v>
+        <v>0.1125425747582222</v>
       </c>
       <c r="R16">
-        <v>1.454441467772</v>
+        <v>1.012883172824</v>
       </c>
       <c r="S16">
-        <v>3.619113369421953E-05</v>
+        <v>2.178111377112225E-05</v>
       </c>
       <c r="T16">
-        <v>3.768132652163278E-05</v>
+        <v>2.231594317655056E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H17">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I17">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J17">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>85.94582122998</v>
+        <v>108.0653196509366</v>
       </c>
       <c r="R17">
-        <v>515.67492737988</v>
+        <v>648.3919179056198</v>
       </c>
       <c r="S17">
-        <v>0.01924745063974736</v>
+        <v>0.02091460078185015</v>
       </c>
       <c r="T17">
-        <v>0.01335998439826291</v>
+        <v>0.01428543546219094</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H18">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I18">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J18">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>55.56923967004001</v>
+        <v>49.631292151522</v>
       </c>
       <c r="R18">
-        <v>333.41543802024</v>
+        <v>297.787752909132</v>
       </c>
       <c r="S18">
-        <v>0.01244465620702331</v>
+        <v>0.009605474401865228</v>
       </c>
       <c r="T18">
-        <v>0.008638048533255484</v>
+        <v>0.006560889499294294</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H19">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I19">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J19">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>3.268912756616666</v>
+        <v>4.016893175852166</v>
       </c>
       <c r="R19">
-        <v>19.6134765397</v>
+        <v>24.101359055113</v>
       </c>
       <c r="S19">
-        <v>0.0007320685988939315</v>
+        <v>0.0007774160797159877</v>
       </c>
       <c r="T19">
-        <v>0.0005081413244143531</v>
+        <v>0.000531003548663949</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H20">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I20">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J20">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>13.63999218805</v>
+        <v>6.70765387550525</v>
       </c>
       <c r="R20">
-        <v>54.5599687522</v>
+        <v>26.830615502021</v>
       </c>
       <c r="S20">
-        <v>0.003054657836865876</v>
+        <v>0.001298176912280168</v>
       </c>
       <c r="T20">
-        <v>0.001413526802636525</v>
+        <v>0.0005911347991551805</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H21">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I21">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J21">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>6.425335811586666</v>
+        <v>2.284995077667666</v>
       </c>
       <c r="R21">
-        <v>38.55201486952</v>
+        <v>13.709970466006</v>
       </c>
       <c r="S21">
-        <v>0.001438945280962373</v>
+        <v>0.0004422303102630735</v>
       </c>
       <c r="T21">
-        <v>0.00099879650886917</v>
+        <v>0.0003020594379296088</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H22">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I22">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J22">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>0.507518564634</v>
+        <v>2.395415754371111</v>
       </c>
       <c r="R22">
-        <v>4.567667081706</v>
+        <v>21.55874178934</v>
       </c>
       <c r="S22">
-        <v>0.0001136580974124298</v>
+        <v>0.0004636007589766285</v>
       </c>
       <c r="T22">
-        <v>0.0001183380414830543</v>
+        <v>0.0004749843512430772</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H23">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I23">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J23">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>0.3281418497320001</v>
+        <v>1.100145537102667</v>
       </c>
       <c r="R23">
-        <v>2.953276647588</v>
+        <v>9.901309833924</v>
       </c>
       <c r="S23">
-        <v>7.348692426420065E-05</v>
+        <v>0.0002129184902682787</v>
       </c>
       <c r="T23">
-        <v>7.651279486478542E-05</v>
+        <v>0.0002181466466771515</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H24">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I24">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J24">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>0.01930325275166667</v>
+        <v>0.08903993647677777</v>
       </c>
       <c r="R24">
-        <v>0.173729274765</v>
+        <v>0.8013594282909999</v>
       </c>
       <c r="S24">
-        <v>4.322937394827871E-06</v>
+        <v>1.723249171027611E-05</v>
       </c>
       <c r="T24">
-        <v>4.500937077113533E-06</v>
+        <v>1.765563092125965E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H25">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I25">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J25">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>0.080545501315</v>
+        <v>0.1486843311078333</v>
       </c>
       <c r="R25">
-        <v>0.4832730078900001</v>
+        <v>0.892105986647</v>
       </c>
       <c r="S25">
-        <v>1.803805628508426E-05</v>
+        <v>2.8775868499546E-05</v>
       </c>
       <c r="T25">
-        <v>1.252052311000898E-05</v>
+        <v>1.965496815389814E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3568596666666666</v>
+      </c>
+      <c r="H26">
+        <v>1.070579</v>
+      </c>
+      <c r="I26">
+        <v>0.0007323302497068134</v>
+      </c>
+      <c r="J26">
+        <v>0.0007404849384491051</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26">
-        <v>0.106441</v>
-      </c>
-      <c r="H26">
-        <v>0.319323</v>
-      </c>
-      <c r="I26">
-        <v>0.0002180031293887273</v>
-      </c>
-      <c r="J26">
-        <v>0.0002207192846134107</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>0.03794224270266667</v>
+        <v>0.05065004411577777</v>
       </c>
       <c r="R26">
-        <v>0.341480184324</v>
+        <v>0.455850397042</v>
       </c>
       <c r="S26">
-        <v>8.497114032184591E-06</v>
+        <v>9.802640252083954E-06</v>
       </c>
       <c r="T26">
-        <v>8.846988078448479E-06</v>
+        <v>1.004334145371858E-05</v>
       </c>
     </row>
   </sheetData>
